--- a/biology/Médecine/Gustave_Gingras/Gustave_Gingras.xlsx
+++ b/biology/Médecine/Gustave_Gingras/Gustave_Gingras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Gingras (18 janvier 1918 - 9 mai 1996) était un médecin québécois. Il a fondé l'Institut de réadaptation de Montréal en 1949.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Montréal (Québec), il a étudié la médecine à l'Université de Montréal après l'obtention de son baccalauréat ès arts au Collège Bourget de Rigaud, au Québec.
 En 1942, il s'est joint au corps médical de l'armée canadienne et a servi à l'étranger pendant la Seconde Guerre mondiale. Là, il a étudié la neurochirurgie en tant que stagiaire au Canadian Neurosurgical and Plastic Surgery Hospital  (Hôpital canadien de neurochirurgie et de chirurgie plastique) de Basingstoke, en Angleterre.
@@ -547,9 +561,11 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1967, il a reçu un doctorat honorifique de l'Université Sir George Williams[1], qui deviendra plus tard l'Université Concordia
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1967, il a reçu un doctorat honorifique de l'Université Sir George Williams, qui deviendra plus tard l'Université Concordia
 En 1967, il a été nommé officier de l'Ordre du Canada.
 En 1972, il a été promu compagnon de l'Ordre du Canada.
 En 1998, il a été intronisé au Temple de la renommée médicale canadienne.
